--- a/examples/2.0.0/SAF_example_HOUSE_metric_ZYX_200.xlsx
+++ b/examples/2.0.0/SAF_example_HOUSE_metric_ZYX_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\testrepo\examples\2.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\2022-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A14C1B-3EFC-4C53-93BA-BDD1C4D28F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E12FC-7E48-4C77-9727-6ABEA8904B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -3566,7 +3566,7 @@
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -4846,13 +4846,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>44372.458578333302</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -4953,7 +4953,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -4981,7 +4981,7 @@
     <col min="24" max="24" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>545</v>
       </c>
@@ -5138,11 +5138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
@@ -5166,7 +5166,7 @@
     <col min="23" max="23" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>602</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>613</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>616</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>620</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>623</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>574</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>630</v>
       </c>
@@ -5683,10 +5683,10 @@
         <v>609</v>
       </c>
       <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>1</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>584</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>636</v>
       </c>
@@ -5819,10 +5819,10 @@
         <v>609</v>
       </c>
       <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>639</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>642</v>
       </c>
@@ -5999,7 +5999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -6010,7 +6010,7 @@
     <col min="7" max="7" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>647</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>650</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>654</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>657</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>660</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>663</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -6189,7 +6189,7 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
@@ -6203,7 +6203,7 @@
     <col min="11" max="11" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>669</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>673</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>676</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>679</v>
       </c>
@@ -6380,14 +6380,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>825</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>827</v>
       </c>
@@ -6436,7 +6436,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
@@ -6444,7 +6444,7 @@
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1034</v>
       </c>
@@ -6492,13 +6492,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1038</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1034</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1034</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1034</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1034</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1034</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1034</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1034</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1034</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1034</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1034</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1034</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1034</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1034</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1034</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1034</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1034</v>
       </c>
@@ -6803,14 +6803,14 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1038</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1034</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1034</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1034</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1034</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1034</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1034</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1034</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1034</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1034</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1034</v>
       </c>
@@ -6947,7 +6947,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="12" width="18" customWidth="1"/>
@@ -6956,7 +6956,7 @@
     <col min="16" max="16" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>695</v>
       </c>
@@ -7058,7 +7058,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -7074,7 +7074,7 @@
     <col min="13" max="13" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>738</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>742</v>
       </c>
@@ -7200,17 +7200,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>44372.458578449099</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>41</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1055</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7383,7 +7383,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -7401,7 +7401,7 @@
     <col min="23" max="23" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>723</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>728</v>
       </c>
@@ -7606,7 +7606,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -7627,7 +7627,7 @@
     <col min="26" max="26" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>711</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>718</v>
       </c>
@@ -7840,7 +7840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="12" width="18" customWidth="1"/>
@@ -7850,7 +7850,7 @@
     <col min="17" max="17" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>748</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>751</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>753</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>755</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>757</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>759</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>761</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>763</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>765</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>767</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>769</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>771</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>773</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>775</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>777</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>779</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>781</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>784</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>787</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>789</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>791</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>793</v>
       </c>
@@ -8755,7 +8755,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -8772,7 +8772,7 @@
     <col min="21" max="21" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>818</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>820</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>822</v>
       </c>
@@ -9003,12 +9003,12 @@
       <selection activeCell="F25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="23" max="23" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="7" customFormat="1">
+    <row r="1" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1">
+    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1153</v>
       </c>
@@ -9137,7 +9137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -9158,7 +9158,7 @@
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>802</v>
       </c>
@@ -9308,7 +9308,7 @@
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
@@ -9331,7 +9331,7 @@
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>815</v>
       </c>
@@ -9477,7 +9477,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -9486,7 +9486,7 @@
     <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>832</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>835</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>839</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>842</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>845</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>848</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>852</v>
       </c>
@@ -9629,7 +9629,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" customWidth="1"/>
@@ -9639,7 +9639,7 @@
     <col min="7" max="7" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>859</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>862</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1062</v>
       </c>
@@ -9729,7 +9729,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
@@ -9744,7 +9744,7 @@
     <col min="11" max="11" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>871</v>
       </c>
@@ -9827,7 +9827,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -9842,7 +9842,7 @@
     <col min="11" max="11" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1163</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -10239,7 +10239,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -10259,7 +10259,7 @@
     <col min="16" max="16" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>885</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>889</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>891</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>893</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>895</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>898</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>900</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>903</v>
       </c>
@@ -10623,7 +10623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -10642,7 +10642,7 @@
     <col min="15" max="15" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1017</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1020</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1022</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1025</v>
       </c>
@@ -10855,7 +10855,7 @@
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -10885,7 +10885,7 @@
     <col min="28" max="28" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>914</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>920</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>922</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>924</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>926</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>928</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>930</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>932</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>934</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>937</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>939</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>941</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>943</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>945</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>947</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>949</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>951</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>953</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>955</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>957</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>959</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>961</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>963</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>965</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>967</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>969</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>971</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>975</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>977</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>979</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>982</v>
       </c>
@@ -12988,7 +12988,7 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -13015,7 +13015,7 @@
     <col min="24" max="24" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>914</v>
       </c>
@@ -13141,7 +13141,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>920</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>922</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>924</v>
       </c>
@@ -13318,7 +13318,7 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -13334,7 +13334,7 @@
     <col min="13" max="13" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>990</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>992</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>994</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>996</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>998</v>
       </c>
@@ -13549,7 +13549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -13561,7 +13561,7 @@
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1012</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1014</v>
       </c>
@@ -13650,7 +13650,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -13663,7 +13663,7 @@
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1012</v>
       </c>
@@ -13755,7 +13755,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1014</v>
       </c>
@@ -13794,7 +13794,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1063</v>
       </c>
@@ -13839,7 +13839,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1064</v>
       </c>
@@ -13898,7 +13898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -13912,7 +13912,7 @@
     <col min="11" max="11" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>905</v>
       </c>
@@ -13998,7 +13998,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
@@ -14013,7 +14013,7 @@
     <col min="16" max="16" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14063,7 +14063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>914</v>
       </c>
@@ -14126,7 +14126,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -14142,7 +14142,7 @@
     <col min="13" max="13" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1001</v>
       </c>
@@ -14240,7 +14240,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
@@ -14255,7 +14255,7 @@
     <col min="16" max="16" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>154</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -14926,7 +14926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>193</v>
       </c>
@@ -15110,7 +15110,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -15127,7 +15127,7 @@
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1111</v>
       </c>
@@ -15205,7 +15205,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1112</v>
       </c>
@@ -15242,7 +15242,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1113</v>
       </c>
@@ -15295,7 +15295,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -15303,7 +15303,7 @@
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -15344,7 +15344,7 @@
       <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" customWidth="1"/>
@@ -15352,7 +15352,7 @@
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>215</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>221</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>225</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>229</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>231</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>233</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -15675,7 +15675,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>243</v>
       </c>
@@ -15726,7 +15726,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>245</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>247</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>253</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>255</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>257</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>261</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>265</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -15930,7 +15930,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>271</v>
       </c>
@@ -15964,7 +15964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>273</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>277</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>279</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>281</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>283</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>285</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>287</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>289</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>291</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>293</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>295</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>297</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>299</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>303</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>305</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>307</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>309</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>311</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>313</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>315</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>319</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>321</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>323</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>327</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>329</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>331</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>333</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>335</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>337</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>339</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>343</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>345</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>347</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>349</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>351</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>353</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>355</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>359</v>
       </c>
@@ -16712,7 +16712,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>361</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>363</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>365</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>367</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>369</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>371</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>373</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>377</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>379</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>381</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>385</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>387</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>389</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>391</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>393</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>395</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>397</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>401</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>403</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>405</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>407</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>409</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>411</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>413</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>1068</v>
       </c>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="E108" s="7"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>1069</v>
       </c>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="E109" s="7"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>1072</v>
       </c>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="E110" s="7"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>1073</v>
       </c>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="E111" s="7"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>1076</v>
       </c>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="E112" s="7"/>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>1080</v>
       </c>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="E113" s="7"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>1077</v>
       </c>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="E114" s="7"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>1081</v>
       </c>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>1085</v>
       </c>
@@ -17306,7 +17306,7 @@
       </c>
       <c r="E116" s="7"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>1097</v>
       </c>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="E117" s="7"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>1098</v>
       </c>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="E118" s="7"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>1099</v>
       </c>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="E119" s="7"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>1086</v>
       </c>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>1091</v>
       </c>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="E121" s="7"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>1092</v>
       </c>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="E122" s="7"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>1095</v>
       </c>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="E123" s="7"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>1096</v>
       </c>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>1124</v>
       </c>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="E125" s="7"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>1125</v>
       </c>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="E126" s="7"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>1126</v>
       </c>
@@ -17471,7 +17471,7 @@
       </c>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>1127</v>
       </c>
@@ -17500,7 +17500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -17510,7 +17510,7 @@
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>583</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>587</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>590</v>
       </c>
@@ -17593,11 +17593,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -17628,7 +17628,7 @@
     <col min="30" max="30" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>439</v>
       </c>
@@ -17809,7 +17809,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>453</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>457</v>
       </c>
@@ -18067,7 +18067,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>460</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>465</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>468</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>471</v>
       </c>
@@ -18411,7 +18411,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>475</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>478</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>481</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>484</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>490</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>493</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>496</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>499</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>502</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>505</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>508</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>511</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>514</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>517</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>520</v>
       </c>
@@ -19787,7 +19787,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>523</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>526</v>
       </c>
@@ -19959,7 +19959,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>529</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>532</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>535</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>538</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>541</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>545</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>548</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1065</v>
       </c>
@@ -20643,7 +20643,7 @@
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>1070</v>
       </c>
@@ -20725,7 +20725,7 @@
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>1074</v>
       </c>
@@ -20807,7 +20807,7 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>1078</v>
       </c>
@@ -20889,7 +20889,7 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1082</v>
       </c>
@@ -20969,7 +20969,7 @@
       <c r="AC39" s="7"/>
       <c r="AD39" s="7"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1089</v>
       </c>
@@ -21051,7 +21051,7 @@
       <c r="AC40" s="7"/>
       <c r="AD40" s="7"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>1093</v>
       </c>
@@ -21133,7 +21133,7 @@
       <c r="AC41" s="7"/>
       <c r="AD41" s="7"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>1128</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>1132</v>
       </c>
@@ -21321,7 +21321,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -21336,7 +21336,7 @@
     <col min="11" max="11" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>440</v>
       </c>
